--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_154.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_154.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,247 +488,248 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:00:46.060000', '0:00:55.660000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07595948827292111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['E/3', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:00:22.484897', '0:00:26.153650')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:05.559465', '0:01:09.714376')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.2753623188405797</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
@@ -731,65 +737,75 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -798,322 +814,309 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4539473684210527</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:46.016712', '0:00:58.392947'), ('0:00:06.357029', '0:00:23.632675')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11', '0:00:16.520000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1121,32 +1124,32 @@
           <t>schubert-winterreise_128</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1157,9 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.36, 7.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.82, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
